--- a/Base/Teams/Jets/Target Depth Data.xlsx
+++ b/Base/Teams/Jets/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Jets/Target Depth Data.xlsx
+++ b/Base/Teams/Jets/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C2">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Jets/Target Depth Data.xlsx
+++ b/Base/Teams/Jets/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C3">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Jets/Target Depth Data.xlsx
+++ b/Base/Teams/Jets/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="C2">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Jets/Target Depth Data.xlsx
+++ b/Base/Teams/Jets/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="C2">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Jets/Target Depth Data.xlsx
+++ b/Base/Teams/Jets/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C3">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D3">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>7</v>
